--- a/data/trans_dic/P12B-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12B-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que convive con personas que requieren cuidados especiales (incluyéndose a sí mismo)</t>
+          <t>Población que convive con personas que requieren cuidados especiales (incluyéndose a sí mismo) (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,77%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3,71%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5,98%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,66</t>
+          <t>0,0; 18,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 12,7</t>
+          <t>0,0; 16,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 8,68</t>
+          <t>0,0; 24,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 10,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,44; 7,89</t>
+          <t>0,0; 12,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,67</t>
+          <t>0,0; 15,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 9,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,74</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 10,02</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1,98; 15,33</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>19,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>6,08%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11,03%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5,16%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>14,12%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,83; 15,7</t>
+          <t>2,55; 21,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,2; 31,97</t>
+          <t>5,78; 50,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,96; 13,38</t>
+          <t>1,66; 16,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,27</t>
+          <t>4,1; 54,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,04</t>
+          <t>0,0; 9,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,19</t>
+          <t>0,0; 7,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 9,05</t>
+          <t>0,0; 11,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,29; 20,23</t>
+          <t>1,48; 14,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 7,63</t>
+          <t>2,74; 12,35</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3,28; 31,95</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2,06; 11,92</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4,77; 35,77</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>5,07%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,7%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3,98%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>7,25%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 30,96</t>
+          <t>0,0; 12,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 12,39</t>
+          <t>1,5; 13,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,82; 10,32</t>
+          <t>3,81; 14,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,1; 10,31</t>
+          <t>2,2; 11,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 14,71</t>
+          <t>1,8; 10,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 12,42</t>
+          <t>4,45; 15,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,46; 22,13</t>
+          <t>2,32; 9,14</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1,46; 7,87</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1,59; 8,09</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3,83; 11,91</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>6,08%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6,19%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>9,06%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7,04%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 10,92</t>
+          <t>1,26; 11,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,45; 14,21</t>
+          <t>2,57; 14,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,5; 14,9</t>
+          <t>4,1; 18,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,19; 11,82</t>
+          <t>2,47; 14,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,46; 11,17</t>
+          <t>2,92; 13,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,61; 16,42</t>
+          <t>1,88; 10,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 10,46</t>
+          <t>3,47; 14,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,55; 10,69</t>
+          <t>3,15; 13,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,23; 14,34</t>
+          <t>3,3; 10,06</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>3,36; 11,17</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5,58; 14,47</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4,01; 12,27</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>11,18%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11,75%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>12,57%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10,15%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,98; 16,4</t>
+          <t>5,15; 22,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,58; 15,08</t>
+          <t>4,59; 19,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,72; 17,4</t>
+          <t>7,5; 24,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,73; 16,4</t>
+          <t>3,91; 21,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,62; 20,43</t>
+          <t>3,54; 20,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,35; 17,71</t>
+          <t>5,99; 25,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,01; 13,8</t>
+          <t>4,02; 21,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,58; 14,77</t>
+          <t>4,0; 23,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,46; 15,42</t>
+          <t>6,23; 18,37</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6,95; 18,81</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>7,65; 20,06</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5,33; 17,63</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,41%</t>
+          <t>16,92%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>24,01%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>15,08%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>11,54%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>10,51%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>21,18%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,84; 24,9</t>
+          <t>11,31; 38,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,38; 23,55</t>
+          <t>2,52; 24,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,45; 21,63</t>
+          <t>5,19; 28,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,41; 31,15</t>
+          <t>7,38; 31,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,64; 19,28</t>
+          <t>2,38; 21,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,49; 30,12</t>
+          <t>4,61; 25,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,5; 24,91</t>
+          <t>1,88; 20,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,15; 18,71</t>
+          <t>8,56; 55,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,33; 23,76</t>
+          <t>8,09; 24,11</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>5,44; 20,46</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>5,21; 18,44</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>11,5; 41,51</t>
         </is>
       </c>
     </row>
@@ -1292,12 +1497,12 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1307,32 +1512,47 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>6,97%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>7,27%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>10,91%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,23; 11,36</t>
+          <t>4,9; 10,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,5; 12,23</t>
+          <t>5,52; 16,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,86; 13,7</t>
+          <t>5,77; 11,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,97; 10,4</t>
+          <t>7,13; 20,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,94; 8,66</t>
+          <t>4,36; 9,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,39; 11,47</t>
+          <t>4,06; 8,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,17; 9,82</t>
+          <t>3,99; 8,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,66; 9,35</t>
+          <t>6,88; 17,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,81; 11,09</t>
+          <t>5,18; 8,83</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>5,39; 11,13</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5,44; 9,18</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>7,89; 16,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que convive con personas que requieren cuidados especiales (incluyéndose a sí mismo) (tasa de respuesta: 99,71%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4001</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6384</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10211</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2901</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6461</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4001</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>9285</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>16672</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20035</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21608</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 35912</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14994</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20719</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19742</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2412; 25061</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5507; 42730</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>15249</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>27821</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>10433</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>43887</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5060</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4042</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9480</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>20309</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>29798</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>14476</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>53367</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4301; 36210</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>8294; 73058</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2564; 26036</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>9181; 121819</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16126</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 9740</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15122</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2270; 22264</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>9152; 41228</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>8858; 86308</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5789; 33458</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>18034; 135165</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2869</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>8929</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>21618</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12725</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>10602</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>20504</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>21618</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>12725</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>13470</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>29433</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17144</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2598; 23908</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10049; 38806</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4598; 24879</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3600; 21332</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10358; 35265</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9897; 38953</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5020; 27068</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5385; 27343</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>15549; 48367</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>9274</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>11913</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>16277</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>13649</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>15358</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>9483</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>13509</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>15188</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>24632</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>21396</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>29785</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>28837</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2346; 20809</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4137; 23557</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>6412; 28677</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>4912; 29042</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6369; 28873</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3469; 20236</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>5982; 24326</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>6636; 29387</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>13362; 40769</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>11595; 38596</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>18335; 47558</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>16433; 50250</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>18848</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>13257</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>17670</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>14646</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>11515</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>13084</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>9459</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>14639</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>30364</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>26341</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>27129</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>29285</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>8102; 35077</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5986; 24771</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>9238; 29997</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5923; 31969</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4040; 23365</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5618; 23740</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3726; 20001</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5489; 32288</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>16924; 49864</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>15571; 42177</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>16516; 43297</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>15398; 50882</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>24607</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>9349</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>11770</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>22774</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>12623</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>12870</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>9336</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>48612</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>37230</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>22219</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>21106</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>71386</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>12368; 41552</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2197; 21026</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4675; 25291</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>9943; 42391</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3272; 29355</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>4843; 26793</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2081; 22350</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>17335; 112934</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>19985; 59543</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>10464; 39380</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>10456; 37011</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>38759; 139934</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>67978</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>66342</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>65403</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>114096</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>66174</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>50139</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>49848</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>114884</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>134152</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>116481</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>115250</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>228979</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>43699; 96272</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>42104; 127568</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>45545; 94179</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>73327; 207724</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>45009; 94969</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>34113; 74728</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>32943; 72050</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>73567; 189849</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>99778; 169873</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>86408; 178250</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>87876; 148231</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>165626; 335778</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>